--- a/RecDesp2017.xlsx
+++ b/RecDesp2017.xlsx
@@ -89,9 +89,6 @@
     <t>Transferências</t>
   </si>
   <si>
-    <t>Outras</t>
-  </si>
-  <si>
     <t>Déficit</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>Superávit</t>
+  </si>
+  <si>
+    <t>Outras Receitas</t>
   </si>
 </sst>
 </file>
@@ -161,7 +161,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -205,7 +205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,7 +524,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,16 +538,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2">
         <v>464500.17354523006</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -599,7 +599,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="2">
         <v>760719.49971638003</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -625,7 +625,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2">
         <v>99907.572611100011</v>
@@ -642,7 +642,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -651,7 +651,7 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2">
         <v>18.95715671</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -677,7 +677,7 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2">
         <v>880.98566240000002</v>
@@ -694,7 +694,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -703,7 +703,7 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2">
         <v>38325.131614759994</v>
@@ -720,7 +720,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -755,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2">
         <v>42160.259062540004</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -798,7 +798,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -807,7 +807,7 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2">
         <v>739.15714070000001</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -833,7 +833,7 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2">
         <v>75258.578957279999</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -885,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2">
         <v>101236.30283157999</v>
@@ -902,7 +902,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E15" s="2">
         <v>34084.628347470003</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -937,7 +937,7 @@
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E16" s="2">
         <v>7320.1649458899992</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>19</v>
@@ -963,7 +963,7 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="2">
         <v>15118.280332199298</v>
@@ -980,16 +980,16 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
         <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" t="s">
-        <v>38</v>
       </c>
       <c r="E18">
         <v>304824.64532271004</v>
@@ -1006,16 +1006,16 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19">
         <v>203158.87083915999</v>
@@ -1032,16 +1032,16 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20">
         <v>1176763.96271529</v>
@@ -1058,16 +1058,16 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21">
         <v>45103.217994650004</v>
@@ -1084,16 +1084,16 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22">
         <v>70857.182818159999</v>
@@ -1110,16 +1110,16 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23">
         <v>783019.27949511004</v>
@@ -1136,16 +1136,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
         <v>41</v>
-      </c>
-      <c r="C24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" t="s">
-        <v>42</v>
       </c>
       <c r="E24">
         <v>0</v>
